--- a/forecast_summary_B07HS59X7P.xlsx
+++ b/forecast_summary_B07HS59X7P.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.6143245312800696</v>
       </c>
       <c r="D2" t="n">
-        <v>1.915997804868482</v>
+        <v>1.912327207557583</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>1.614821411911461</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13111816910886</v>
+        <v>3.203388383310129</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>1.875932927201289</v>
       </c>
       <c r="D4" t="n">
-        <v>3.656519915119887</v>
+        <v>3.767106472620936</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1.151645251979226</v>
       </c>
       <c r="D5" t="n">
-        <v>2.826247787606486</v>
+        <v>2.975452396373655</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.2022237176717998</v>
       </c>
       <c r="D6" t="n">
-        <v>1.408112021710082</v>
+        <v>1.469550553067659</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.08912529650763576</v>
       </c>
       <c r="D7" t="n">
-        <v>1.197177008461979</v>
+        <v>1.226401174073672</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.3107989987110915</v>
       </c>
       <c r="D8" t="n">
-        <v>1.656871468371317</v>
+        <v>1.680892004364481</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>0.691713642481566</v>
       </c>
       <c r="D9" t="n">
-        <v>2.409314741578166</v>
+        <v>2.500703046457866</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.5490648778372335</v>
       </c>
       <c r="D10" t="n">
-        <v>2.213167083221907</v>
+        <v>2.311826487720228</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>0.1315262762963784</v>
       </c>
       <c r="D11" t="n">
-        <v>1.391887688912839</v>
+        <v>1.444914696514572</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.02055017479295056</v>
       </c>
       <c r="D12" t="n">
-        <v>1.226243387414044</v>
+        <v>1.248402125150252</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.1818802070207142</v>
       </c>
       <c r="D13" t="n">
-        <v>1.578602788083427</v>
+        <v>1.532184514040511</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0.3410365641391097</v>
       </c>
       <c r="D14" t="n">
-        <v>1.90405732197456</v>
+        <v>1.951618504893337</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>0.1884846336519714</v>
       </c>
       <c r="D15" t="n">
-        <v>1.630289168075437</v>
+        <v>1.517505918824787</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.05693380912244008</v>
       </c>
       <c r="D16" t="n">
-        <v>1.195959487383025</v>
+        <v>1.301185807469116</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.04827943777495656</v>
       </c>
       <c r="D17" t="n">
-        <v>1.214007088253931</v>
+        <v>1.305662358602764</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.1829484156343996</v>
       </c>
       <c r="D18" t="n">
-        <v>1.618300720464198</v>
+        <v>1.754410395435648</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.2955045410036947</v>
       </c>
       <c r="D19" t="n">
-        <v>1.822053403058964</v>
+        <v>1.833921083424337</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>0.1389453891095132</v>
       </c>
       <c r="D20" t="n">
-        <v>1.467267460802666</v>
+        <v>1.482210779196108</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.05781840274098052</v>
       </c>
       <c r="D21" t="n">
-        <v>1.191211944924879</v>
+        <v>1.189477918366833</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z390 UD</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
